--- a/Esp32 f450 frame quadcopter BOM.xlsx
+++ b/Esp32 f450 frame quadcopter BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prati\OneDrive\Documents\Drone Files\ESP32 DRONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prati\OneDrive\Documents\Drone Files\ESP32 DRONE\Github repo Pratik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62229BA1-70EB-423B-9130-FD553AD5BB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624DD11B-A0C1-4A46-9052-7ED00C6EB301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3BA33F18-A41A-4ACB-BD64-54897D8E3B35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Sr No</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Qty Reqd</t>
   </si>
   <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Total price</t>
-  </si>
-  <si>
     <t>F450 / Q450 Quadcopter Frame – PCB Version Frame Kit with Integrated PCB – Made in INDIA</t>
   </si>
   <si>
@@ -132,7 +126,16 @@
     <t>ESP32 QUADCOPTER BILL OF MATERIALS</t>
   </si>
   <si>
-    <t>Total Cost(Excluding tools)</t>
+    <t>Unit Price(INR)</t>
+  </si>
+  <si>
+    <t>Total price(INR)</t>
+  </si>
+  <si>
+    <t>Total Quadcopter Cost(Excluding tools)</t>
+  </si>
+  <si>
+    <t>Flight contorller cost</t>
   </si>
 </sst>
 </file>
@@ -209,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -232,6 +235,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,34 +570,35 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" style="12"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>1</v>
@@ -586,28 +607,28 @@
         <v>2</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <f>SUM(F3:F16)</f>
         <v>11675</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -619,16 +640,23 @@
         <f>D3*E3</f>
         <v>800</v>
       </c>
+      <c r="H3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="4">
+        <f>SUM(F9:F16)</f>
+        <v>685</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -642,14 +670,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -663,14 +691,14 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -684,14 +712,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -705,14 +733,14 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -726,14 +754,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -747,14 +775,14 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -768,14 +796,14 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -789,14 +817,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -810,14 +838,14 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -831,14 +859,14 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -852,14 +880,14 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -873,14 +901,14 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -894,14 +922,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="17">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -915,14 +943,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="17">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
@@ -936,14 +964,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="17">
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="6">
         <v>1</v>
@@ -957,14 +985,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="17">
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -978,14 +1006,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="17">
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
@@ -999,14 +1027,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="17">
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
@@ -1020,14 +1048,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="17">
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -1041,14 +1069,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="17">
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
@@ -1066,5 +1094,6 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>